--- a/data_year/zb/批发和零售业/限额以上批发业企业主要财务指标/按国民经济行业分限额以上批发业企业利润总额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业主要财务指标/按国民经济行业分限额以上批发业企业利润总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1338 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.8834</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>218.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>238</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100.9</v>
+      </c>
       <c r="E2" t="n">
-        <v>55.6265</v>
+        <v>627.4</v>
       </c>
       <c r="F2" t="n">
-        <v>3.6203</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>224.9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>454.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>462.9</v>
+      </c>
       <c r="J2" t="n">
-        <v>32.9264</v>
+        <v>2732.9</v>
       </c>
       <c r="K2" t="n">
-        <v>19.7272</v>
+        <v>829.4</v>
       </c>
       <c r="L2" t="n">
-        <v>332.2164</v>
+        <v>1764.2</v>
       </c>
       <c r="M2" t="n">
-        <v>15.4263</v>
+        <v>1008.8</v>
       </c>
       <c r="N2" t="n">
-        <v>114.1275</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+        <v>1460.9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4544.3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1287.2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>208.3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1137.9</v>
+      </c>
       <c r="U2" t="n">
-        <v>358.4206</v>
+        <v>2761.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>344.806299999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>320.788200000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>141.2824</v>
+      </c>
       <c r="E3" t="n">
-        <v>65.5954</v>
+        <v>854.2575000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>4.069</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>388.8811</v>
+      </c>
+      <c r="G3" t="n">
+        <v>278.0697</v>
+      </c>
+      <c r="H3" t="n">
+        <v>558.9178000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>679.5170000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3334.9307</v>
+      </c>
       <c r="K3" t="n">
-        <v>27.4232</v>
+        <v>1047.165</v>
       </c>
       <c r="L3" t="n">
-        <v>332.9562</v>
+        <v>2104.3822</v>
       </c>
       <c r="M3" t="n">
-        <v>16.1976</v>
+        <v>1035.6803</v>
       </c>
       <c r="N3" t="n">
-        <v>49.1238</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>1993.2001</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5426.8502</v>
+      </c>
       <c r="P3" t="n">
-        <v>-27.0386</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>144.8142</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1689.1614</v>
+      </c>
+      <c r="R3" t="n">
+        <v>221.1154</v>
+      </c>
+      <c r="S3" t="n">
+        <v>268.1692</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1205.9216</v>
+      </c>
       <c r="U3" t="n">
-        <v>367.0469</v>
+        <v>3529.8563</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>389.31225</v>
+      </c>
+      <c r="C4" t="n">
+        <v>328.233339999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>161.93002</v>
+      </c>
       <c r="E4" t="n">
-        <v>66.34180000000001</v>
+        <v>1071.55721</v>
       </c>
       <c r="F4" t="n">
-        <v>6.9697</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>399.016090000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>492.68615</v>
+      </c>
+      <c r="H4" t="n">
+        <v>516.36676</v>
+      </c>
+      <c r="I4" t="n">
+        <v>871.057030000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2972.31604</v>
+      </c>
       <c r="K4" t="n">
-        <v>52.8083</v>
+        <v>1122.42026</v>
       </c>
       <c r="L4" t="n">
-        <v>399.9157</v>
+        <v>2329.89349</v>
       </c>
       <c r="M4" t="n">
-        <v>22.0769</v>
+        <v>1105.77052</v>
       </c>
       <c r="N4" t="n">
-        <v>130.77</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>1960.4775</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5315.90739999999</v>
+      </c>
       <c r="P4" t="n">
-        <v>-36.0314</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>221.13335</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2545.51494</v>
+      </c>
+      <c r="R4" t="n">
+        <v>187.51437</v>
+      </c>
+      <c r="S4" t="n">
+        <v>183.61485</v>
+      </c>
+      <c r="T4" t="n">
+        <v>917.516640000001</v>
+      </c>
       <c r="U4" t="n">
-        <v>422.1753</v>
+        <v>4133.09817</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.8494</v>
+        <v>512.88746</v>
       </c>
       <c r="C5" t="n">
-        <v>0.31956</v>
+        <v>546.648709999999</v>
       </c>
       <c r="D5" t="n">
-        <v>14.25606</v>
+        <v>204.105849999999</v>
       </c>
       <c r="E5" t="n">
-        <v>73.24297</v>
+        <v>1358.37968</v>
       </c>
       <c r="F5" t="n">
-        <v>9.698399999999999</v>
+        <v>509.544670000001</v>
       </c>
       <c r="G5" t="n">
-        <v>35.13368</v>
+        <v>451.9978</v>
       </c>
       <c r="H5" t="n">
-        <v>6.96997</v>
+        <v>731.75325</v>
       </c>
       <c r="I5" t="n">
-        <v>41.94206</v>
+        <v>1075.61306</v>
       </c>
       <c r="J5" t="n">
-        <v>148.4037</v>
+        <v>3636.89188</v>
       </c>
       <c r="K5" t="n">
-        <v>59.07183</v>
+        <v>1337.39902</v>
       </c>
       <c r="L5" t="n">
-        <v>512.75183</v>
+        <v>2546.05025</v>
       </c>
       <c r="M5" t="n">
-        <v>24.40879</v>
+        <v>1298.76285</v>
       </c>
       <c r="N5" t="n">
-        <v>197.28992</v>
+        <v>2367.88836</v>
       </c>
       <c r="O5" t="n">
-        <v>363.48284</v>
+        <v>7384.39736999999</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24282</v>
+        <v>258.58762</v>
       </c>
       <c r="Q5" t="n">
-        <v>102.98816</v>
+        <v>3399.21514</v>
       </c>
       <c r="R5" t="n">
-        <v>5.89566</v>
+        <v>208.35584</v>
       </c>
       <c r="S5" t="n">
-        <v>63.08728</v>
+        <v>230.2089</v>
       </c>
       <c r="T5" t="n">
-        <v>82.08009</v>
+        <v>1843.51213</v>
       </c>
       <c r="U5" t="n">
-        <v>561.31282</v>
+        <v>4919.58355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.7866</v>
+        <v>468.0944</v>
       </c>
       <c r="C6" t="n">
-        <v>60.45202</v>
+        <v>573.94266</v>
       </c>
       <c r="D6" t="n">
-        <v>33.2073</v>
+        <v>313.0511</v>
       </c>
       <c r="E6" t="n">
-        <v>185.01966</v>
+        <v>1633.57585</v>
       </c>
       <c r="F6" t="n">
-        <v>57.51778</v>
+        <v>512.27727</v>
       </c>
       <c r="G6" t="n">
-        <v>75.60299999999999</v>
+        <v>519.5239</v>
       </c>
       <c r="H6" t="n">
-        <v>66.23936999999999</v>
+        <v>772.68192</v>
       </c>
       <c r="I6" t="n">
-        <v>112.3874</v>
+        <v>1106.27894</v>
       </c>
       <c r="J6" t="n">
-        <v>624.29306</v>
+        <v>4054.60637</v>
       </c>
       <c r="K6" t="n">
-        <v>135.66356</v>
+        <v>1594.78438</v>
       </c>
       <c r="L6" t="n">
-        <v>786.00525</v>
+        <v>2815.13508</v>
       </c>
       <c r="M6" t="n">
-        <v>205.18461</v>
+        <v>1088.10267</v>
       </c>
       <c r="N6" t="n">
-        <v>640.15885</v>
+        <v>1613.30154</v>
       </c>
       <c r="O6" t="n">
-        <v>1430.93842</v>
+        <v>6316.31226</v>
       </c>
       <c r="P6" t="n">
-        <v>31.43581</v>
+        <v>272.71981</v>
       </c>
       <c r="Q6" t="n">
-        <v>310.4843</v>
+        <v>3592.77284</v>
       </c>
       <c r="R6" t="n">
-        <v>38.00952</v>
+        <v>197.15365</v>
       </c>
       <c r="S6" t="n">
-        <v>25.41509</v>
+        <v>229.72947</v>
       </c>
       <c r="T6" t="n">
-        <v>327.52554</v>
+        <v>1649.85661000001</v>
       </c>
       <c r="U6" t="n">
-        <v>980.2660100000001</v>
+        <v>5325.63682</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.03091</v>
+        <v>485.1655</v>
       </c>
       <c r="C7" t="n">
-        <v>76.77782999999999</v>
+        <v>533.915300000001</v>
       </c>
       <c r="D7" t="n">
-        <v>45.30428</v>
+        <v>221.7</v>
       </c>
       <c r="E7" t="n">
-        <v>188.00598</v>
+        <v>1939.6587</v>
       </c>
       <c r="F7" t="n">
-        <v>54.50644</v>
+        <v>530.2098999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>75.88919</v>
+        <v>582.9732</v>
       </c>
       <c r="H7" t="n">
-        <v>114.50746</v>
+        <v>596.850700000001</v>
       </c>
       <c r="I7" t="n">
-        <v>116.64355</v>
+        <v>1222.5556</v>
       </c>
       <c r="J7" t="n">
-        <v>668.54657</v>
+        <v>3873.8652</v>
       </c>
       <c r="K7" t="n">
-        <v>116.32945</v>
+        <v>1415.7983</v>
       </c>
       <c r="L7" t="n">
-        <v>975.33403</v>
+        <v>2680.6448</v>
       </c>
       <c r="M7" t="n">
-        <v>249.82177</v>
+        <v>827.402999999998</v>
       </c>
       <c r="N7" t="n">
-        <v>712.57718</v>
+        <v>1430.7621</v>
       </c>
       <c r="O7" t="n">
-        <v>1489.20947</v>
+        <v>5382.89419999999</v>
       </c>
       <c r="P7" t="n">
-        <v>20.32167</v>
+        <v>292.862599999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>305.49893</v>
+        <v>3663.457</v>
       </c>
       <c r="R7" t="n">
-        <v>29.40121</v>
+        <v>186.230599999999</v>
       </c>
       <c r="S7" t="n">
-        <v>33.40679</v>
+        <v>233.049500000001</v>
       </c>
       <c r="T7" t="n">
-        <v>281.99473</v>
+        <v>1250.82870000001</v>
       </c>
       <c r="U7" t="n">
-        <v>1173.9024</v>
+        <v>5681.1379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>157.2298</v>
+        <v>466.8612</v>
       </c>
       <c r="C8" t="n">
-        <v>83.3241</v>
+        <v>522.1103000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>45.484</v>
+        <v>185.4278</v>
       </c>
       <c r="E8" t="n">
-        <v>214.0228</v>
+        <v>2283.9144</v>
       </c>
       <c r="F8" t="n">
-        <v>64.6778</v>
+        <v>616.031099999999</v>
       </c>
       <c r="G8" t="n">
-        <v>90.2422</v>
+        <v>698.6678000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>144.3913</v>
+        <v>707.204700000002</v>
       </c>
       <c r="I8" t="n">
-        <v>151.5427</v>
+        <v>1089.6032</v>
       </c>
       <c r="J8" t="n">
-        <v>802.3581</v>
+        <v>4674.6483</v>
       </c>
       <c r="K8" t="n">
-        <v>112.5439</v>
+        <v>1788.9182</v>
       </c>
       <c r="L8" t="n">
-        <v>1129.9397</v>
+        <v>2419.8792</v>
       </c>
       <c r="M8" t="n">
-        <v>226.934</v>
+        <v>907.9417999999999</v>
       </c>
       <c r="N8" t="n">
-        <v>883.0114</v>
+        <v>1698.1174</v>
       </c>
       <c r="O8" t="n">
-        <v>1784.9703</v>
+        <v>6245.35790000001</v>
       </c>
       <c r="P8" t="n">
-        <v>22.5024</v>
+        <v>376.7533</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.6524</v>
+        <v>3770.0636</v>
       </c>
       <c r="R8" t="n">
-        <v>39.4111</v>
+        <v>231.261899999999</v>
       </c>
       <c r="S8" t="n">
-        <v>56.264</v>
+        <v>250.872</v>
       </c>
       <c r="T8" t="n">
-        <v>380.1792</v>
+        <v>1535.96959999999</v>
       </c>
       <c r="U8" t="n">
-        <v>1382.6262</v>
+        <v>5932.6433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.12456</v>
+        <v>407.897</v>
       </c>
       <c r="C9" t="n">
-        <v>98.41101999999999</v>
+        <v>422.098</v>
       </c>
       <c r="D9" t="n">
-        <v>68.10601</v>
+        <v>180.285</v>
       </c>
       <c r="E9" t="n">
-        <v>256.60286</v>
+        <v>2884.608</v>
       </c>
       <c r="F9" t="n">
-        <v>95.87044</v>
+        <v>578.008</v>
       </c>
       <c r="G9" t="n">
-        <v>112.40437</v>
+        <v>761.112</v>
       </c>
       <c r="H9" t="n">
-        <v>204.56007</v>
+        <v>909.249</v>
       </c>
       <c r="I9" t="n">
-        <v>219.27493</v>
+        <v>1092.758</v>
       </c>
       <c r="J9" t="n">
-        <v>1092.46004</v>
+        <v>5282.281</v>
       </c>
       <c r="K9" t="n">
-        <v>183.48518</v>
+        <v>2022.486</v>
       </c>
       <c r="L9" t="n">
-        <v>1353.73186</v>
+        <v>2445.016</v>
       </c>
       <c r="M9" t="n">
-        <v>350.19614</v>
+        <v>943.168</v>
       </c>
       <c r="N9" t="n">
-        <v>1018.62551</v>
+        <v>1938.64</v>
       </c>
       <c r="O9" t="n">
-        <v>2243.64452</v>
+        <v>6665.374</v>
       </c>
       <c r="P9" t="n">
-        <v>32.59153</v>
+        <v>363.934</v>
       </c>
       <c r="Q9" t="n">
-        <v>564.3348</v>
+        <v>4139.049</v>
       </c>
       <c r="R9" t="n">
-        <v>50.9781</v>
+        <v>240.224</v>
       </c>
       <c r="S9" t="n">
-        <v>61.66741</v>
+        <v>200.111</v>
       </c>
       <c r="T9" t="n">
-        <v>506.60219</v>
+        <v>1634.943</v>
       </c>
       <c r="U9" t="n">
-        <v>1680.45451</v>
+        <v>5642.394</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>345.5261</v>
+        <v>592.800000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>187.3361</v>
+        <v>447.8</v>
       </c>
       <c r="D10" t="n">
-        <v>139.5817</v>
+        <v>195.499999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>507.255</v>
+        <v>3455.9</v>
       </c>
       <c r="F10" t="n">
-        <v>213.5477</v>
+        <v>756.1</v>
       </c>
       <c r="G10" t="n">
-        <v>219.2512</v>
+        <v>850.000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>300.7997</v>
+        <v>728.7</v>
       </c>
       <c r="I10" t="n">
-        <v>385.2551</v>
+        <v>1377.8</v>
       </c>
       <c r="J10" t="n">
-        <v>2094.8202</v>
+        <v>5832.49999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>516.3207</v>
+        <v>2361.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1709.6814</v>
+        <v>2598.9</v>
       </c>
       <c r="M10" t="n">
-        <v>996.6306</v>
+        <v>1185.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1274.752</v>
+        <v>1952.80000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>4411.2075</v>
+        <v>8005.90000000002</v>
       </c>
       <c r="P10" t="n">
-        <v>88.46040000000001</v>
+        <v>385.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1028.8329</v>
+        <v>5033.7</v>
       </c>
       <c r="R10" t="n">
-        <v>94.8721</v>
+        <v>312.299999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>173.1452</v>
+        <v>240.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1252.6342</v>
+        <v>2169</v>
       </c>
       <c r="U10" t="n">
-        <v>2437.1649</v>
+        <v>6099.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>175.59518</v>
+        <v>176.2282</v>
       </c>
       <c r="C11" t="n">
-        <v>183.2629</v>
+        <v>165.8757</v>
       </c>
       <c r="D11" t="n">
-        <v>53.99367</v>
+        <v>34.9424</v>
       </c>
       <c r="E11" t="n">
-        <v>502.97763</v>
+        <v>1029.0231</v>
       </c>
       <c r="F11" t="n">
-        <v>177.40997</v>
+        <v>460.1282</v>
       </c>
       <c r="G11" t="n">
-        <v>183.28533</v>
+        <v>389.3323</v>
       </c>
       <c r="H11" t="n">
-        <v>336.14319</v>
+        <v>108.9733</v>
       </c>
       <c r="I11" t="n">
-        <v>383.58552</v>
+        <v>394.75</v>
       </c>
       <c r="J11" t="n">
-        <v>1994.99436</v>
+        <v>1969.354</v>
       </c>
       <c r="K11" t="n">
-        <v>524.15944</v>
+        <v>692.5139</v>
       </c>
       <c r="L11" t="n">
-        <v>1723.41325</v>
+        <v>1886.4001</v>
       </c>
       <c r="M11" t="n">
-        <v>676.59873</v>
+        <v>615.542</v>
       </c>
       <c r="N11" t="n">
-        <v>1733.56839</v>
+        <v>548.4806</v>
       </c>
       <c r="O11" t="n">
-        <v>3950.83123</v>
+        <v>2887.6692</v>
       </c>
       <c r="P11" t="n">
-        <v>89.79649000000001</v>
+        <v>102.1302</v>
       </c>
       <c r="Q11" t="n">
-        <v>1055.15142</v>
+        <v>1317.995</v>
       </c>
       <c r="R11" t="n">
-        <v>102.01755</v>
+        <v>84.31100000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>154.19288</v>
+        <v>126.7571</v>
       </c>
       <c r="T11" t="n">
-        <v>843.6238499999999</v>
+        <v>719.9444</v>
       </c>
       <c r="U11" t="n">
-        <v>2471.89946</v>
+        <v>3810.2528</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>218.3</v>
+        <v>265.2994</v>
       </c>
       <c r="C12" t="n">
-        <v>238</v>
+        <v>276.225</v>
       </c>
       <c r="D12" t="n">
-        <v>100.9</v>
+        <v>28.4422</v>
       </c>
       <c r="E12" t="n">
-        <v>627.4</v>
+        <v>1134.1911</v>
       </c>
       <c r="F12" t="n">
-        <v>224.9</v>
+        <v>520.3799</v>
       </c>
       <c r="G12" t="n">
-        <v>217.7</v>
+        <v>401.083</v>
       </c>
       <c r="H12" t="n">
-        <v>454.5</v>
+        <v>145.8166</v>
       </c>
       <c r="I12" t="n">
-        <v>462.9</v>
+        <v>301.7521</v>
       </c>
       <c r="J12" t="n">
-        <v>2732.9</v>
+        <v>2560.2564</v>
       </c>
       <c r="K12" t="n">
-        <v>829.4</v>
+        <v>933.6958</v>
       </c>
       <c r="L12" t="n">
-        <v>1764.2</v>
+        <v>1973.7966</v>
       </c>
       <c r="M12" t="n">
-        <v>1008.8</v>
+        <v>721.9087</v>
       </c>
       <c r="N12" t="n">
-        <v>1460.9</v>
+        <v>365.2726</v>
       </c>
       <c r="O12" t="n">
-        <v>4544.3</v>
+        <v>3193.2508</v>
       </c>
       <c r="P12" t="n">
-        <v>107.9</v>
+        <v>133.8135</v>
       </c>
       <c r="Q12" t="n">
-        <v>1287.2</v>
+        <v>1376.7035</v>
       </c>
       <c r="R12" t="n">
-        <v>134.5</v>
+        <v>235.2471</v>
       </c>
       <c r="S12" t="n">
-        <v>208.3</v>
+        <v>136.2812</v>
       </c>
       <c r="T12" t="n">
-        <v>1137.9</v>
+        <v>785.7415999999999</v>
       </c>
       <c r="U12" t="n">
-        <v>2761.6</v>
+        <v>3823.8703</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>344.806299999999</v>
+        <v>275.4309</v>
       </c>
       <c r="C13" t="n">
-        <v>320.788200000001</v>
+        <v>276.5399</v>
       </c>
       <c r="D13" t="n">
-        <v>141.2824</v>
+        <v>96.8343</v>
       </c>
       <c r="E13" t="n">
-        <v>854.2575000000001</v>
+        <v>1300.9819</v>
       </c>
       <c r="F13" t="n">
-        <v>388.8811</v>
+        <v>677.1953999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>278.0697</v>
+        <v>528.9888999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>558.9178000000001</v>
+        <v>-96.7051</v>
       </c>
       <c r="I13" t="n">
-        <v>679.5170000000001</v>
+        <v>308.3988</v>
       </c>
       <c r="J13" t="n">
-        <v>3334.9307</v>
+        <v>3145.0219</v>
       </c>
       <c r="K13" t="n">
-        <v>1047.165</v>
+        <v>1082.8099</v>
       </c>
       <c r="L13" t="n">
-        <v>2104.3822</v>
+        <v>2027.3492</v>
       </c>
       <c r="M13" t="n">
-        <v>1035.6803</v>
+        <v>1470.7525</v>
       </c>
       <c r="N13" t="n">
-        <v>1993.2001</v>
+        <v>761.4808</v>
       </c>
       <c r="O13" t="n">
-        <v>5426.8502</v>
+        <v>5761.4388</v>
       </c>
       <c r="P13" t="n">
-        <v>144.8142</v>
+        <v>120.317</v>
       </c>
       <c r="Q13" t="n">
-        <v>1689.1614</v>
+        <v>1183.5655</v>
       </c>
       <c r="R13" t="n">
-        <v>221.1154</v>
+        <v>364.9047</v>
       </c>
       <c r="S13" t="n">
-        <v>268.1692</v>
+        <v>152.0362</v>
       </c>
       <c r="T13" t="n">
-        <v>1205.9216</v>
+        <v>1572.0189</v>
       </c>
       <c r="U13" t="n">
-        <v>3529.8563</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>389.31225</v>
-      </c>
-      <c r="C14" t="n">
-        <v>328.233339999999</v>
-      </c>
-      <c r="D14" t="n">
-        <v>161.93002</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1071.55721</v>
-      </c>
-      <c r="F14" t="n">
-        <v>399.016090000001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>492.68615</v>
-      </c>
-      <c r="H14" t="n">
-        <v>516.36676</v>
-      </c>
-      <c r="I14" t="n">
-        <v>871.057030000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2972.31604</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1122.42026</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2329.89349</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1105.77052</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1960.4775</v>
-      </c>
-      <c r="O14" t="n">
-        <v>5315.90739999999</v>
-      </c>
-      <c r="P14" t="n">
-        <v>221.13335</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2545.51494</v>
-      </c>
-      <c r="R14" t="n">
-        <v>187.51437</v>
-      </c>
-      <c r="S14" t="n">
-        <v>183.61485</v>
-      </c>
-      <c r="T14" t="n">
-        <v>917.516640000001</v>
-      </c>
-      <c r="U14" t="n">
-        <v>4133.09817</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>512.88746</v>
-      </c>
-      <c r="C15" t="n">
-        <v>546.648709999999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>204.105849999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1358.37968</v>
-      </c>
-      <c r="F15" t="n">
-        <v>509.544670000001</v>
-      </c>
-      <c r="G15" t="n">
-        <v>451.9978</v>
-      </c>
-      <c r="H15" t="n">
-        <v>731.75325</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1075.61306</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3636.89188</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1337.39902</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2546.05025</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1298.76285</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2367.88836</v>
-      </c>
-      <c r="O15" t="n">
-        <v>7384.39736999999</v>
-      </c>
-      <c r="P15" t="n">
-        <v>258.58762</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3399.21514</v>
-      </c>
-      <c r="R15" t="n">
-        <v>208.35584</v>
-      </c>
-      <c r="S15" t="n">
-        <v>230.2089</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1843.51213</v>
-      </c>
-      <c r="U15" t="n">
-        <v>4919.58355</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>468.0944</v>
-      </c>
-      <c r="C16" t="n">
-        <v>573.94266</v>
-      </c>
-      <c r="D16" t="n">
-        <v>313.0511</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1633.57585</v>
-      </c>
-      <c r="F16" t="n">
-        <v>512.27727</v>
-      </c>
-      <c r="G16" t="n">
-        <v>519.5239</v>
-      </c>
-      <c r="H16" t="n">
-        <v>772.68192</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1106.27894</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4054.60637</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1594.78438</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2815.13508</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1088.10267</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1613.30154</v>
-      </c>
-      <c r="O16" t="n">
-        <v>6316.31226</v>
-      </c>
-      <c r="P16" t="n">
-        <v>272.71981</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3592.77284</v>
-      </c>
-      <c r="R16" t="n">
-        <v>197.15365</v>
-      </c>
-      <c r="S16" t="n">
-        <v>229.72947</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1649.85661000001</v>
-      </c>
-      <c r="U16" t="n">
-        <v>5325.63682</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>485.1655</v>
-      </c>
-      <c r="C17" t="n">
-        <v>533.915300000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>221.7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1939.6587</v>
-      </c>
-      <c r="F17" t="n">
-        <v>530.2098999999999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>582.9732</v>
-      </c>
-      <c r="H17" t="n">
-        <v>596.850700000001</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1222.5556</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3873.8652</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1415.7983</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2680.6448</v>
-      </c>
-      <c r="M17" t="n">
-        <v>827.402999999998</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1430.7621</v>
-      </c>
-      <c r="O17" t="n">
-        <v>5382.89419999999</v>
-      </c>
-      <c r="P17" t="n">
-        <v>292.862599999999</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3663.457</v>
-      </c>
-      <c r="R17" t="n">
-        <v>186.230599999999</v>
-      </c>
-      <c r="S17" t="n">
-        <v>233.049500000001</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1250.82870000001</v>
-      </c>
-      <c r="U17" t="n">
-        <v>5681.1379</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>466.8612</v>
-      </c>
-      <c r="C18" t="n">
-        <v>522.1103000000001</v>
-      </c>
-      <c r="D18" t="n">
-        <v>185.4278</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2283.9144</v>
-      </c>
-      <c r="F18" t="n">
-        <v>616.031099999999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>698.6678000000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>707.204700000002</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1089.6032</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4674.6483</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1788.9182</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2419.8792</v>
-      </c>
-      <c r="M18" t="n">
-        <v>907.9417999999999</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1698.1174</v>
-      </c>
-      <c r="O18" t="n">
-        <v>6245.35790000001</v>
-      </c>
-      <c r="P18" t="n">
-        <v>376.7533</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3770.0636</v>
-      </c>
-      <c r="R18" t="n">
-        <v>231.261899999999</v>
-      </c>
-      <c r="S18" t="n">
-        <v>250.872</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1535.96959999999</v>
-      </c>
-      <c r="U18" t="n">
-        <v>5932.6433</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>407.897</v>
-      </c>
-      <c r="C19" t="n">
-        <v>422.098</v>
-      </c>
-      <c r="D19" t="n">
-        <v>180.285</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2884.608</v>
-      </c>
-      <c r="F19" t="n">
-        <v>578.008</v>
-      </c>
-      <c r="G19" t="n">
-        <v>761.112</v>
-      </c>
-      <c r="H19" t="n">
-        <v>909.249</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1092.758</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5282.281</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2022.486</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2445.016</v>
-      </c>
-      <c r="M19" t="n">
-        <v>943.168</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1938.64</v>
-      </c>
-      <c r="O19" t="n">
-        <v>6665.374</v>
-      </c>
-      <c r="P19" t="n">
-        <v>363.934</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4139.049</v>
-      </c>
-      <c r="R19" t="n">
-        <v>240.224</v>
-      </c>
-      <c r="S19" t="n">
-        <v>200.111</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1634.943</v>
-      </c>
-      <c r="U19" t="n">
-        <v>5642.394</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>592.800000000001</v>
-      </c>
-      <c r="C20" t="n">
-        <v>447.8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>195.499999999999</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3455.9</v>
-      </c>
-      <c r="F20" t="n">
-        <v>756.1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>850.000000000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>728.7</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1377.8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5832.49999999999</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2361.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2598.9</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1185.5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1952.80000000001</v>
-      </c>
-      <c r="O20" t="n">
-        <v>8005.90000000002</v>
-      </c>
-      <c r="P20" t="n">
-        <v>385.1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5033.7</v>
-      </c>
-      <c r="R20" t="n">
-        <v>312.299999999999</v>
-      </c>
-      <c r="S20" t="n">
-        <v>240.9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2169</v>
-      </c>
-      <c r="U20" t="n">
-        <v>6099.6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>176.2282</v>
-      </c>
-      <c r="C21" t="n">
-        <v>165.8757</v>
-      </c>
-      <c r="D21" t="n">
-        <v>34.9424</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1029.0231</v>
-      </c>
-      <c r="F21" t="n">
-        <v>460.1282</v>
-      </c>
-      <c r="G21" t="n">
-        <v>389.3323</v>
-      </c>
-      <c r="H21" t="n">
-        <v>108.9733</v>
-      </c>
-      <c r="I21" t="n">
-        <v>394.75</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1969.354</v>
-      </c>
-      <c r="K21" t="n">
-        <v>692.5139</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1886.4001</v>
-      </c>
-      <c r="M21" t="n">
-        <v>615.542</v>
-      </c>
-      <c r="N21" t="n">
-        <v>548.4806</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2887.6692</v>
-      </c>
-      <c r="P21" t="n">
-        <v>102.1302</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1317.995</v>
-      </c>
-      <c r="R21" t="n">
-        <v>84.31100000000001</v>
-      </c>
-      <c r="S21" t="n">
-        <v>126.7571</v>
-      </c>
-      <c r="T21" t="n">
-        <v>719.9444</v>
-      </c>
-      <c r="U21" t="n">
-        <v>3810.2528</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>265.2994</v>
-      </c>
-      <c r="C22" t="n">
-        <v>276.225</v>
-      </c>
-      <c r="D22" t="n">
-        <v>28.4422</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1134.1911</v>
-      </c>
-      <c r="F22" t="n">
-        <v>520.3799</v>
-      </c>
-      <c r="G22" t="n">
-        <v>401.083</v>
-      </c>
-      <c r="H22" t="n">
-        <v>145.8166</v>
-      </c>
-      <c r="I22" t="n">
-        <v>301.7521</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2560.2564</v>
-      </c>
-      <c r="K22" t="n">
-        <v>933.6958</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1973.7966</v>
-      </c>
-      <c r="M22" t="n">
-        <v>721.9087</v>
-      </c>
-      <c r="N22" t="n">
-        <v>365.2726</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3193.2508</v>
-      </c>
-      <c r="P22" t="n">
-        <v>133.8135</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1376.7035</v>
-      </c>
-      <c r="R22" t="n">
-        <v>235.2471</v>
-      </c>
-      <c r="S22" t="n">
-        <v>136.2812</v>
-      </c>
-      <c r="T22" t="n">
-        <v>785.7415999999999</v>
-      </c>
-      <c r="U22" t="n">
-        <v>3823.8703</v>
+        <v>4217.5025</v>
       </c>
     </row>
   </sheetData>
